--- a/action/actionList_protocolCore.xlsx
+++ b/action/actionList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\action\protocolCore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6437CE-6292-4449-A1FB-40DDE9832AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D895C-F969-446B-A2CD-D80A0D72BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Descrizione</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>Cod Azione</t>
+  </si>
+  <si>
+    <t>YAX3MUSR</t>
+  </si>
+  <si>
+    <t>Backend Utenti ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>YAX3M(B)</t>
   </si>
 </sst>
 </file>
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,6 +582,41 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/action/actionList_protocolCore.xlsx
+++ b/action/actionList_protocolCore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1D895C-F969-446B-A2CD-D80A0D72BFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826F202B-326A-44F7-B16B-C7BD742ECE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/action/actionList_protocolCore.xlsx
+++ b/action/actionList_protocolCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826F202B-326A-44F7-B16B-C7BD742ECE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827C7D49-7C12-4AC9-8219-9655C3C29D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Descrizione</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Configurazione ArgoX3 Mobile</t>
   </si>
   <si>
-    <t>YAX3M</t>
-  </si>
-  <si>
     <t>Supervisore</t>
   </si>
   <si>
@@ -93,7 +90,7 @@
     <t>Backend Utenti ArgoX3 Mobile</t>
   </si>
   <si>
-    <t>YAX3M(B)</t>
+    <t>YAX3C</t>
   </si>
 </sst>
 </file>
@@ -495,7 +492,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +511,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -555,66 +552,66 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
